--- a/Articles/Employee Community.xlsx
+++ b/Articles/Employee Community.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iGuest\Google Drive\UW\Github\inclusive-employement\Articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66232F2C-7758-4F1E-8164-8F341B383169}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A836F9-92E8-4109-8BE7-BBD0EDA68941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,9 +172,6 @@
     <t>https://blogs.microsoft.com/bayarea/2018/04/30/microsoft-employee-resource-groups-creating-community-and-celebrating-diversity-across-silicon-valley-and-san-francisco/</t>
   </si>
   <si>
-    <t>Microsoft employee resource groups: creating community and ...</t>
-  </si>
-  <si>
     <t>Minority Student Day is one of the many ways ourEmployee Resource Groups(ERGs) connect employees with the greater Bay Area community. Regional ERG chapters create a deep sense of belonging to Microsoft by bringing people together — not only within each ERG, but across Microsoft Silicon Valley and San Francisco. ERGs frequently collaborate with each other across events to create an even larger impact.
 Meet a few of the ERG superstars helping to foster inclusion and diversity on our campus.
 The regional ERG hosts several social gatherings, educational activities, and outreach events each year. HOLArecently hosted a boothat aTechnology Education and Literacy in Schools(TEALS) event, created to motivate students from diverse high schools across the Bay Area to pursue computer science in college and as a career path.
@@ -215,9 +212,6 @@
   </si>
   <si>
     <t>https://news.microsoft.com/life/the-workspace-of-the-future/</t>
-  </si>
-  <si>
-    <t>Building the workspace of the future: sneak a look at ...</t>
   </si>
   <si>
     <t>But as mindsets and culture have transformed, so has the thinking about how we want to work, create, and connect. Focus and privacy can be found in a soundproof drop-in phone booth or upholstered alcove; inspiration (and, according to research, employee health) can soar in a light-filled atrium, cushy couches providing a welcome landing space for team touchdowns. Impromptu conversations, encouraged by communal work “neighborhoods,” can lead to innovation; better productivity; and faster, more agile development.
@@ -361,9 +355,6 @@
   </si>
   <si>
     <t>https://blogs.cisco.com/wearecisco/cisco-employee-brings-hidden-disabilities-to-light</t>
-  </si>
-  <si>
-    <t>Cisco Employee Brings Hidden Disabilities to Light - Cisco ...</t>
   </si>
   <si>
     <t>It all started during the maternity leave of my second son, when I took the time to read about hidden disabilities, or as I like to think of them, “hidden super powers.”
@@ -609,9 +600,6 @@
     <t>https://news.microsoft.com/features/high-profile-leader-reveals-disability-helps-others-have-more-empowered-voice/</t>
   </si>
   <si>
-    <t>A high-profile leader reveals his disability to help ...</t>
-  </si>
-  <si>
     <t>As a human resources exec, Chuck Edward has long championed the voices of others and encouraged their stories. He has traveled globally, from India to Romania, with thoughtful advice for employees and job candidates to be vulnerable, open-minded and authentic. He’s a well-known, compassionate mentor who enjoys coaching people and shaping an inclusive culture that gives everyone “permission to be real.”
 But Edward, a Microsoft veteran of nearly 16 years, has largely muted his own story. While mentoring and encouraging employees with disabilities to “have a voice” and “leverage their backgrounds,” the corporate vice president has kept his own disability, diagnosed eight years ago, mostly hidden.
 That’s changing today, with Edward publicly revealing that he lives with multiple sclerosis (MS), an unpredictable disease of the central nervous system that affects an estimated 1 million people in the U.S. He is disclosing his disability at theAbility Summit, an annual event focused on inclusivity and accessible technology for Microsoft employees and the disability community.
@@ -762,9 +750,6 @@
     <t>https://blogs.microsoft.com/accessibility/10-habits-to-create-accessible-content/</t>
   </si>
   <si>
-    <t>10 Habits to create accessible content - Microsoft ...</t>
-  </si>
-  <si>
     <t xml:space="preserve">  written by Clint Covington Group Program Manager, E+D Accessibility
 Over 70% of disabilities are invisible. You may not know if someone in your distribution list or team has a disability. When you build and share accessible content, you empower people with disabilities at home, work and school, especially virtual school. As a father of a kindergartener, I see firsthand the challenges remote learning introduces to families. For those with disabilities, both students and parents, there is an additional layer, as every piece of content needs to be accessible.
 I believe it is possible to create an inclusive workplace and school environment, but it takes awareness and planning.
@@ -923,12 +908,27 @@
   <si>
     <t>Today's diverse workforce creates extraordinary value for business, government, and education. At the same time, it introduces new challenges. How can organizations empower all people, regardless of hearing, vision, and mobility level, to contribute equally? And how can those same organizations provide equal service to their customers with disabilities? The extent to which an organization provides equal access shapes its productivity, responsiveness, and ability to attract and retain the most qualified employees, regardless of disability. It also increases the organization's service levels to a distinct segment of its customer base, positively affecting customer satisfaction and revenue.</t>
   </si>
+  <si>
+    <t>Microsoft employee resource groups: creating community and …</t>
+  </si>
+  <si>
+    <t>Building the workspace of the future: sneak a look at …</t>
+  </si>
+  <si>
+    <t>A high-profile leader reveals his disability to help …</t>
+  </si>
+  <si>
+    <t>10 Habits to create accessible content - Microsoft …</t>
+  </si>
+  <si>
+    <t>Cisco Employee Brings Hidden Disabilities to Light - Cisco …</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,13 +950,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -983,10 +997,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -996,8 +1011,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1300,11 +1318,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1333,13 +1355,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2"/>
@@ -1363,7 +1385,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2"/>
@@ -1381,13 +1403,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1407,13 +1429,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2"/>
@@ -1437,7 +1459,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1463,448 +1485,448 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
+      <c r="C7" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>55</v>
+      <c r="A10" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
+      <c r="C10" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>80</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
@@ -1913,454 +1935,454 @@
         <v>13</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>133</v>
+        <v>80</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>136</v>
+      <c r="A26" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>137</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>141</v>
+      <c r="A27" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>142</v>
+      <c r="C27" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>147</v>
+      <c r="C28" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>151</v>
+      <c r="A29" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>152</v>
+      <c r="C29" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>157</v>
+      <c r="C30" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>161</v>
+      <c r="A31" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>162</v>
+      <c r="C31" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>166</v>
+      <c r="C32" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>170</v>
+      <c r="A33" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>171</v>
+      <c r="C33" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>176</v>
+      <c r="C34" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>180</v>
+      <c r="A35" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>181</v>
+      <c r="C35" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>186</v>
+        <v>59</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>191</v>
+        <v>59</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>196</v>
+        <v>80</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>210</v>
+      <c r="A41" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>211</v>
+        <v>80</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>216</v>
+        <v>80</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>37</v>
@@ -2369,11 +2391,31 @@
         <v>13</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{71748468-7094-4B46-B78C-9D0C940206B6}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{98711E19-5699-43D6-9E2E-AFEF5B49DEC3}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{AED286D7-B4B0-486D-B2DA-23C587DDF15B}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{68D4D942-F55F-472F-A324-86BB09A24D97}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{2B5B66C8-5154-4011-89FF-0EF789693F45}"/>
+    <hyperlink ref="A27" r:id="rId6" xr:uid="{918B4ABB-7014-40F0-8322-F4555CFA2C7B}"/>
+    <hyperlink ref="A29" r:id="rId7" xr:uid="{61EE7E2D-528E-4D69-A498-08D1CC2EC5BA}"/>
+    <hyperlink ref="A31" r:id="rId8" xr:uid="{5802E4E4-0289-4BE4-AF3C-ED7B71FF82CB}"/>
+    <hyperlink ref="A33" r:id="rId9" xr:uid="{EBB4EBE4-3A72-4323-A4F2-366FA1B37C58}"/>
+    <hyperlink ref="A35" r:id="rId10" xr:uid="{E6B3EB07-5DD9-4550-83C8-65DA94326BCA}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{7A3371D4-4249-4436-B477-CDD7CF67DE28}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{FC15BE22-000E-4604-A9C6-A7A83F829F51}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{4CE9F0BC-11D0-4044-BBCB-AAEF24404323}"/>
+    <hyperlink ref="A22" r:id="rId14" xr:uid="{B8552B49-8BA5-4E16-AB0A-C108A5C86453}"/>
+    <hyperlink ref="A24" r:id="rId15" xr:uid="{1431B54F-85B0-4E80-8A45-2F66D949535B}"/>
+    <hyperlink ref="A26" r:id="rId16" xr:uid="{B9A2B10D-4A5E-43F6-BEBF-2FA66E604BDB}"/>
+    <hyperlink ref="A40" r:id="rId17" xr:uid="{EF88294F-BA05-477B-9981-D1531246601E}"/>
+    <hyperlink ref="A41" r:id="rId18" xr:uid="{6F4302F7-B84E-44C1-B109-5485C9741DFC}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>